--- a/~$Modèle-audit-SEO.xlsx
+++ b/~$Modèle-audit-SEO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\formation\AnthonyLeRoy_4_18092020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\formation\AnthonyLeRoy_4_18092020\Starting website\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Catégorie</t>
   </si>
@@ -48,148 +48,178 @@
     <t>SEO</t>
   </si>
   <si>
-    <t>inserer un mot clé</t>
-  </si>
-  <si>
-    <t>balise description</t>
-  </si>
-  <si>
-    <t>balise robots</t>
-  </si>
-  <si>
-    <t>non renseignée</t>
-  </si>
-  <si>
-    <t>titré par mots clés</t>
-  </si>
-  <si>
-    <t>orienté le texte client</t>
-  </si>
-  <si>
-    <t>manquante</t>
-  </si>
-  <si>
-    <t>index et page 2</t>
-  </si>
-  <si>
-    <t>pratiques Blackhat</t>
-  </si>
-  <si>
-    <t>balise mots-clés invisible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liens externes </t>
-  </si>
-  <si>
-    <t>nombreux et incohérents</t>
-  </si>
-  <si>
-    <t>réduire et meilleure qualité</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>oui</t>
   </si>
   <si>
-    <t>images</t>
-  </si>
-  <si>
-    <t>non optimisées</t>
-  </si>
-  <si>
-    <t>réduire, compresser</t>
-  </si>
-  <si>
-    <t>attribut alt</t>
-  </si>
-  <si>
-    <t>attribut async pour JS</t>
-  </si>
-  <si>
-    <t>manquant</t>
-  </si>
-  <si>
-    <t>ajouter pour le chargement</t>
-  </si>
-  <si>
-    <t>non optimisés</t>
-  </si>
-  <si>
-    <t>pratiques Whitehat</t>
-  </si>
-  <si>
-    <t>fichier CSS</t>
-  </si>
-  <si>
-    <t>non minimifié</t>
-  </si>
-  <si>
-    <t>compresser</t>
-  </si>
-  <si>
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>accessibilité mots-clés</t>
-  </si>
-  <si>
-    <t>balise meta keyword</t>
-  </si>
-  <si>
-    <t>inutile</t>
-  </si>
-  <si>
-    <t>supprimer</t>
-  </si>
-  <si>
-    <t>taille police trop petite</t>
-  </si>
-  <si>
-    <t>lecture difficile</t>
-  </si>
-  <si>
-    <t>caractères plus grand</t>
-  </si>
-  <si>
-    <t>attribut lang</t>
-  </si>
-  <si>
-    <t>en défaut</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>contraste</t>
-  </si>
-  <si>
-    <t>non conforme</t>
-  </si>
-  <si>
-    <t>4,5:1 pour AA WCAG</t>
-  </si>
-  <si>
-    <t>balise h2 et h3</t>
-  </si>
-  <si>
-    <t>hiérarchie non respectée</t>
-  </si>
-  <si>
-    <t>respect de la hiérarchie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la balise title n'est pas renseignée </t>
-  </si>
-  <si>
-    <t>la balise html lang est défini par défault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le site ne contient qu'une seule langue </t>
-  </si>
-  <si>
-    <t>Pour facilité le travail de google il convient de lui signifier la langue du site lorsqu'il y en a qu'une</t>
+    <t>Le site ne contient qu'une seule langue, le français</t>
+  </si>
+  <si>
+    <t>Pour facilité le travail d'indexation de google il convient de lui préciser la langue du site lorsqu'il y en a qu'une</t>
+  </si>
+  <si>
+    <t>Lorsque cette balise n'est pas renseignée le éférencement par le moteur de recherche est moins valorisant pour le site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir en utilisant un maximum de mots-clés référencés, pertinents et localisants </t>
+  </si>
+  <si>
+    <t>Cette balise est nécessaire pour l'indexation et le suivi du site par les moteurs de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Présence de balise avec des attributs de style CSS </t>
+  </si>
+  <si>
+    <t>Ne jamais tenter de tromper le robot du moteur de recheche, adopté des pratiques Whitehat</t>
+  </si>
+  <si>
+    <t>la balise &lt;html lang=""&gt; est défini par défault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratiques SEO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratiques de référencement et indexation pour Googlebot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratiques de référencement, d'indexation et de crawling pour Googlebot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les liens externes dans le footer sont trop nombreux </t>
+  </si>
+  <si>
+    <t>Les liens n eprésentent aucun lien avec le sujet du site ne sont pas pertinents pour les moteurs de recherche et leurs nombres peux être interpréter comme une pratique Blackhat</t>
+  </si>
+  <si>
+    <t>Réduire les liens aux sites partenaires cohérents et pertinents traitants ou complétants le sujet du site</t>
+  </si>
+  <si>
+    <t>Pratiques Whitehat correspondant aux attentes de Googlebot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La taille et le poids des images </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le poids des images est trop important, il freine le chargement du site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il convient d'optimiser au mieux la taille, le poids et la qualité des images pour un meilleur temps de chargement </t>
+  </si>
+  <si>
+    <t>Pratiques de Googlebot pour un meilleur référencement</t>
+  </si>
+  <si>
+    <t>La taille des fichiers Bootstrap, CSS, et JS</t>
+  </si>
+  <si>
+    <t>Le poids de ces fichiers est trop lourd, ils ralentissent le site lors du chargement des pages</t>
+  </si>
+  <si>
+    <t>Il faut minifier ces fichiers</t>
+  </si>
+  <si>
+    <t>Sans ces attributs si le JS bloque, le chargement du site bloque également</t>
+  </si>
+  <si>
+    <t>Ces attributs permettent de charger le site correctement en priorisant le chargement des fichiers principaux (html, CSS)</t>
+  </si>
+  <si>
+    <t>Toujours favoriser les balises sémantiques</t>
+  </si>
+  <si>
+    <t>Bonne pratique SEO pour une meilleure compréhension de Googlebot et pour le suivi</t>
+  </si>
+  <si>
+    <t>Son utilité n'est plus avéré pour le référencement et peut être assimiler a une pratique de tricherie</t>
+  </si>
+  <si>
+    <t>Site de meilleur stabilité pour le référencement SEO</t>
+  </si>
+  <si>
+    <t>La hiérarchie n'est pas respectée ce qui engendre un référencement grâce aux mots-clés moins optimiser</t>
+  </si>
+  <si>
+    <t>Pratiques SEO pour le référencement optimiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les attributs alt des balises imges ne sont pas correctement rédiger </t>
+  </si>
+  <si>
+    <t>Dans le cas d' une audio description l'utilisateur n'aura pas un rendu proche de l’image</t>
+  </si>
+  <si>
+    <t>donner un descriptif de l'image proche du visuel</t>
+  </si>
+  <si>
+    <t>Règles WCAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la balise &lt;title&gt; n'est pas renseignée </t>
+  </si>
+  <si>
+    <t>La balise &lt;meta description&gt; n'est pas remplie</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de balise &lt;meta robots&gt;</t>
+  </si>
+  <si>
+    <t>Les attributs async ne sont pas présents dans les balises &lt;scripts&gt; pour le JS</t>
+  </si>
+  <si>
+    <t>Les balises &lt;H2&gt; arrivent après les &lt;H3&gt;</t>
+  </si>
+  <si>
+    <t>Respect de la hiérarchie structurelle des titres une seul balise &lt;H1&gt; suivi de &lt;H2&gt; (une ou plusieurs) puis &lt;H3&gt;(une ou plusieurs) etc</t>
+  </si>
+  <si>
+    <t>Présence d'une balise &lt;meta keywords&gt;</t>
+  </si>
+  <si>
+    <t>Le contraste n'est pas assez marqué</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contraste doit respecté des références afin de facilité l'expérience visuelle d'un plus large éventail d'utilisateurs  </t>
+  </si>
+  <si>
+    <t>Référence 4,5:1 en taille normale, 3:1 en grande taille ou en gras et pour les icônes et éléments d'interface</t>
+  </si>
+  <si>
+    <t>Règles WCAG 2,0 AA</t>
+  </si>
+  <si>
+    <t>Favoriser, faciliter la lecture aux plus grand nombre d'utilisateurs</t>
+  </si>
+  <si>
+    <t>Il faut titré la page par des mots-clés pertinents traitants de la marque et du sujet pour faciliter l'expérience utilisateur</t>
+  </si>
+  <si>
+    <t>Rien ne va s'afficher sur l'onglet de la page web lorsque plusieures seront ouvertes on ne saura pas de quel sujet traite cette page, Le référencement sera moins élévé</t>
+  </si>
+  <si>
+    <t>Mise en place de la balise meta robots avec les attributs index(noindex), follow(nofollow)</t>
+  </si>
+  <si>
+    <t>La balise contient des mots-clés invisibles qui sont détectés et pénalisé par les moteur de recherche pour le référencement (pratique Blackhat)</t>
+  </si>
+  <si>
+    <t>Non respect des balises</t>
+  </si>
+  <si>
+    <t>Il y a des balises vides mais aussi des balises&lt;div&gt; qui sont à remplacer par des balises sémantiques (footer,figure)</t>
+  </si>
+  <si>
+    <t>Supprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La taille du texte </t>
+  </si>
+  <si>
+    <t>La taille de la police n'est pas adapté sur le desktop, il est difficile à lire</t>
+  </si>
+  <si>
+    <t>non</t>
   </si>
 </sst>
 </file>
@@ -510,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -563,304 +593,304 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="105" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="105" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="120" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="90" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
